--- a/src/main/resources/data/DP.xlsx
+++ b/src/main/resources/data/DP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mithilesh_singh/IdeaProjects/dsa/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE3E6CB-7075-1442-BDC3-775FF6286CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB326C-B7C5-A044-92D2-59F27C7CB8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{96F02D6A-AE2D-B042-9BB6-8333E869033F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{96F02D6A-AE2D-B042-9BB6-8333E869033F}"/>
   </bookViews>
   <sheets>
     <sheet name="KnapSack" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t xml:space="preserve">Max Capacity 7 </t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t xml:space="preserve">true false true true true true true </t>
+  </si>
+  <si>
+    <t>j=1</t>
+  </si>
+  <si>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>x=-1</t>
+  </si>
+  <si>
+    <t>y =0</t>
   </si>
 </sst>
 </file>
@@ -905,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9461BEAE-D4FC-404C-9633-C07C3917AFA5}">
-  <dimension ref="B1:K37"/>
+  <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,12 +930,12 @@
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
@@ -931,7 +943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
@@ -939,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="C4" s="31" t="s">
         <v>0</v>
       </c>
@@ -950,7 +962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
@@ -958,7 +970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="37" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" ht="37" x14ac:dyDescent="0.35">
       <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
@@ -968,21 +980,48 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="W7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
@@ -1010,8 +1049,14 @@
       <c r="K9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1042,8 +1087,14 @@
       <c r="K10" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1074,8 +1125,14 @@
       <c r="K11" s="36">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29">
         <v>2</v>
       </c>
@@ -1106,8 +1163,14 @@
       <c r="K12" s="34">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3</v>
       </c>
@@ -1139,7 +1202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1171,7 +1234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5</v>
       </c>
